--- a/results/MVSE/dblp/MVSE_dblp<l10><WH>90.91.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l10><WH>90.91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -639,17 +639,17 @@
         <v>0.22</v>
       </c>
       <c r="N3" t="n">
-        <v>90.23999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0.04</v>
       </c>
       <c r="P3" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_21_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_38_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -658,7 +658,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -677,14 +677,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -699,34 +699,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="N4" t="n">
-        <v>89.86</v>
+        <v>90.56</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="P4" t="n">
-        <v>0.71</v>
+        <v>0.23</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_57_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_57_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -767,34 +767,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="N5" t="n">
-        <v>89.75</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="P5" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_27_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_21_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -836,33 +836,33 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="N6" t="n">
-        <v>89.73999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_27_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_20_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -903,34 +903,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="N7" t="n">
-        <v>89.59</v>
+        <v>89.86</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_12_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_57_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -949,14 +949,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -971,34 +971,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
       <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="N8" t="n">
-        <v>89.08</v>
+        <v>89.75</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P8" t="n">
-        <v>0.18</v>
+        <v>0.61</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_22_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_27_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1046,27 +1046,27 @@
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="N9" t="n">
-        <v>89.06999999999999</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="O9" t="n">
         <v>0.03</v>
       </c>
       <c r="P9" t="n">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_58_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_27_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1085,14 +1085,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" t="n">
         <v>50</v>
@@ -1107,34 +1107,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="N10" t="n">
-        <v>87.5</v>
+        <v>89.73</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_40_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_50_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>128</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
         <v>50</v>
@@ -1182,27 +1182,27 @@
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="N11" t="n">
-        <v>86.84999999999999</v>
+        <v>89.59</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P11" t="n">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_12_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_12_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>128</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
@@ -1248,20 +1248,20 @@
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="N12" t="n">
-        <v>84.22</v>
+        <v>89.08</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="P12" t="n">
-        <v>0.92</v>
+        <v>0.18</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_11_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_22_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1270,7 +1270,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>128</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H13" t="n">
         <v>50</v>
@@ -1318,23 +1318,431 @@
         <v>2</v>
       </c>
       <c r="M13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_58_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>128</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N14" t="n">
+        <v>88.58</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_00_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>128</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N15" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_40_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>50</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N16" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_12_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>128</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>50</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N17" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_37_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>128</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N18" t="n">
+        <v>84.22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_11_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>128</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.45</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N19" t="n">
         <v>83.52</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O19" t="n">
         <v>0.05</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P19" t="n">
         <v>0.63</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_43_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
